--- a/public/Metro All Data.xlsx
+++ b/public/Metro All Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milad.moradi\Desktop\Demo Portal\ReactVideo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6061D4-1286-4C91-8FA4-8D068AE59439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170616D7-0F95-4330-BCA4-D8377EDD9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9A5EA03E-B89D-0E4D-B944-BE1D488626D3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="demo_Metro Flyer_ec_export_2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'demo_Metro Flyer_ec_export_2025'!$A$1:$W$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'demo_Metro Flyer_ec_export_2025'!$A$1:$X$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="205">
   <si>
     <t>id</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>C:\Users\milad.moradi\Desktop\Demo Portal\ReactVideo\public\Assets\Metro\P2\13.png</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F6707-D549-C24E-8638-9822459C6453}">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1569,25 +1572,26 @@
     <col min="5" max="5" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="3"/>
-    <col min="10" max="10" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.9140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="3"/>
-    <col min="15" max="15" width="12.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.25" style="3" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.1640625" style="3"/>
+    <col min="8" max="8" width="3.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="3"/>
+    <col min="11" max="11" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.9140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="3"/>
+    <col min="16" max="16" width="12.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.25" style="3" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1610,58 +1614,61 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
@@ -1683,57 +1690,60 @@
       <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="3">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>18359964</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="3" t="str">
-        <f>O2</f>
+      <c r="V2" s="3" t="str">
+        <f>P2</f>
         <v>FRESH CANADIAN STEELHEAD TROUT OR TILAPIA FILLETS VALUE PACK</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -1755,54 +1765,57 @@
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="3">
+        <v>1002</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>78764678</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="3" t="str">
-        <f t="shared" ref="U3:U52" si="0">O3</f>
+      <c r="V3" s="3" t="str">
+        <f t="shared" ref="V3:V52" si="0">P3</f>
         <v>PLATINUM GRILL ANGUS TOP SIRLOIN STEAK VALUE PACK OR ROAST</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1824,61 +1837,64 @@
       <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>1003</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>31157098</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="U4" s="3" t="str">
+      <c r="V4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>IRRESISTIBLE ARTISAN
 BLACK FOREST HAM OR SWISS CHEESE</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1900,60 +1916,63 @@
       <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>1004</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>50116584</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="U5" s="3" t="str">
+      <c r="V5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FRESH LAMB SHOULDER CHOPS VALUE PACK</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -1975,57 +1994,60 @@
       <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
         <v>5</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>50153122</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="U6" s="3" t="str">
+      <c r="V6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>AGROPUR 3-YEAR AGED GRAND CHEDDAR</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="W6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -2047,60 +2069,63 @@
       <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="3">
+        <v>1006</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
+      <c r="J7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
         <v>6</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>30361316</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="U7" s="3" t="str">
+      <c r="V7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MAPLE LEAF PRIME RAISED WITHOUT ANTIBIOTICS</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="W7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -2122,58 +2147,61 @@
       <c r="G8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3">
+        <v>1007</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
         <v>7</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9310340</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U8" s="3" t="str">
+      <c r="V8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>KICKING HORSE
 GROUND COFFEE</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="W8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -2195,57 +2223,60 @@
       <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>1008</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
         <v>8</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50191456</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="U9" s="3" t="str">
+      <c r="V9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>OIKOS YOGOURT TUBS</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2267,60 +2298,63 @@
       <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3">
+        <v>1009</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>9</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30589515</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="V10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>LACTANTIA MILK</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="W10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
@@ -2342,58 +2376,61 @@
       <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="3">
+        <v>1010</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
         <v>10</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>30428331</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="U11" s="3" t="str">
+      <c r="V11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>QUAKER CRISPY MINIS OR
 CHEWY OR DIPPS BARS</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="W11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -2415,61 +2452,64 @@
       <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>1011</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
         <v>11</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9481890</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="U12" s="3" t="str">
+      <c r="V12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>KELLOGG’S OR GENERAL MILLS
 FAMILY CEREAL</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -2491,57 +2531,60 @@
       <c r="G13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="3">
+        <v>1012</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
         <v>12</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>31146745</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="U13" s="3" t="str">
+      <c r="V13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>UNICO SUNFLOWER OIL</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="W13" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -2563,58 +2606,61 @@
       <c r="G14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>1013</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
+      <c r="J14" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
         <v>13</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31447171</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="U14" s="3" t="str">
+      <c r="V14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>HABITANT SOUP 796 ml or
 CAMPBELL’S CH</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="W14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -2636,58 +2682,61 @@
       <c r="G15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>1014</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
+      <c r="J15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
         <v>14</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9499166</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="U15" s="3" t="str">
+      <c r="V15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BLACK DIAMOND
 BARS OR SHREDDED CHEESE</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="W15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -2709,58 +2758,61 @@
       <c r="G16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="3">
+        <v>1015</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
+      <c r="J16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
         <v>15</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>31633256</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U16" s="3" t="str">
+      <c r="V16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PAMPERS OR HUGGIES
 BABY DIAPERS</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="W16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -2782,49 +2834,52 @@
       <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="3">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U17" s="3" t="str">
+      <c r="V17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Your Fresh Market™ Strawberries
 3 pack. Product of USA</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="W17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
@@ -2846,49 +2901,52 @@
       <c r="G18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="3">
+        <v>1017</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="U18" s="3" t="str">
+      <c r="V18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BONELESS SKINLESS CHICKEN BREASTS
 Bag. Selected varieties.</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="W18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Y18" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
@@ -2910,49 +2968,52 @@
       <c r="G19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="3">
+        <v>1018</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U19" s="3" t="str">
+      <c r="V19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ROMAINE LETTUCE HEARTS
 Pack. Selected varieties and sizes.</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="W19" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>62</v>
       </c>
@@ -2974,49 +3035,52 @@
       <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="3">
+        <v>1019</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U20" s="3" t="str">
+      <c r="V20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Your Fresh Market™ Strawberries
 3 pack. Product of USA</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="W20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -3038,49 +3102,52 @@
       <c r="G21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="3">
+        <v>1020</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="U21" s="3" t="str">
+      <c r="V21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BONELESS SKINLESS CHICKEN BREASTS
 Bag. Selected varieties.</v>
       </c>
-      <c r="V21" s="5" t="s">
+      <c r="W21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Y21" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
@@ -3102,49 +3169,52 @@
       <c r="G22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>1021</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U22" s="3" t="str">
+      <c r="V22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ROMAINE LETTUCE HEARTS
 Pack. Selected varieties and sizes.</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="W22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
@@ -3166,49 +3236,52 @@
       <c r="G23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="3">
+        <v>1022</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U23" s="3" t="str">
+      <c r="V23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Your Fresh Market™ Strawberries
 3 pack. Product of USA</v>
       </c>
-      <c r="V23" s="5" t="s">
+      <c r="W23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="Y23" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -3230,49 +3303,52 @@
       <c r="G24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3">
+        <v>1023</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="U24" s="3" t="str">
+      <c r="V24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BONELESS SKINLESS CHICKEN BREASTS
 Bag. Selected varieties.</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="W24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Y24" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
@@ -3294,49 +3370,52 @@
       <c r="G25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="3">
+        <v>1024</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U25" s="3" t="str">
+      <c r="V25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ROMAINE LETTUCE HEARTS
 Pack. Selected varieties and sizes.</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="W25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
@@ -3358,49 +3437,52 @@
       <c r="G26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="3">
+        <v>1025</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U26" s="3" t="str">
+      <c r="V26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Your Fresh Market™ Strawberries
 3 pack. Product of USA</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="W26" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
@@ -3422,49 +3504,52 @@
       <c r="G27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="3">
+        <v>1026</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="U27" s="3" t="str">
+      <c r="V27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BONELESS SKINLESS CHICKEN BREASTS
 Bag. Selected varieties.</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="W27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X27" s="3" t="s">
+      <c r="Y27" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -3486,49 +3571,52 @@
       <c r="G28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="3">
+        <v>1027</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U28" s="3" t="str">
+      <c r="V28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ROMAINE LETTUCE HEARTS
 Pack. Selected varieties and sizes.</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="W28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="Y28" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -3550,49 +3638,52 @@
       <c r="G29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>1028</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U29" s="3" t="str">
+      <c r="V29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Your Fresh Market™ Strawberries
 3 pack. Product of USA</v>
       </c>
-      <c r="V29" s="5" t="s">
+      <c r="W29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
@@ -3614,49 +3705,52 @@
       <c r="G30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="3">
+        <v>1029</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="U30" s="3" t="str">
+      <c r="V30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BONELESS SKINLESS CHICKEN BREASTS
 Bag. Selected varieties.</v>
       </c>
-      <c r="V30" s="5" t="s">
+      <c r="W30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="Y30" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -3678,49 +3772,52 @@
       <c r="G31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="3">
+        <v>1030</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U31" s="3" t="str">
+      <c r="V31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ROMAINE LETTUCE HEARTS
 Pack. Selected varieties and sizes.</v>
       </c>
-      <c r="V31" s="5" t="s">
+      <c r="W31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="Y31" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
@@ -3742,49 +3839,52 @@
       <c r="G32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="3">
+        <v>1031</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U32" s="3" t="str">
+      <c r="V32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Your Fresh Market™ Strawberries
 3 pack. Product of USA</v>
       </c>
-      <c r="V32" s="5" t="s">
+      <c r="W32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="Y32" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
@@ -3806,49 +3906,52 @@
       <c r="G33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="3">
+        <v>1032</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="U33" s="3" t="str">
+      <c r="V33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BONELESS SKINLESS CHICKEN BREASTS
 Bag. Selected varieties.</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="W33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="X33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X33" s="3" t="s">
+      <c r="Y33" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
@@ -3870,49 +3973,52 @@
       <c r="G34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="3">
+        <v>1033</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U34" s="3" t="str">
+      <c r="V34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ROMAINE LETTUCE HEARTS
 Pack. Selected varieties and sizes.</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="W34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="X34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X34" s="3" t="s">
+      <c r="Y34" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -3934,57 +4040,60 @@
       <c r="G35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="3">
+        <v>1034</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="3">
         <v>2</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18359964</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="U35" s="3" t="str">
+      <c r="V35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>WONDER OR COUNTRY HARVEST BREADS</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="W35" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="X35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X35" s="3" t="s">
+      <c r="Y35" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -4006,55 +4115,58 @@
       <c r="G36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="3">
+        <v>1035</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="3">
-        <v>2</v>
+      <c r="J36" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K36" s="3">
         <v>2</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="3">
+      <c r="O36" s="3">
         <v>78764678</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="U36" s="3" t="str">
+      <c r="V36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>VEGETARIAN, CALIFORNIA OR SPICY
 CALIFORNIA ROLLS</v>
       </c>
-      <c r="V36" s="5" t="s">
+      <c r="W36" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="X36" s="3" t="s">
+      <c r="Y36" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -4076,60 +4188,63 @@
       <c r="G37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="3">
+        <v>1036</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="J37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="3">
         <v>2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>3</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="3">
         <v>31157098</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="P37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="U37" s="3" t="str">
+      <c r="V37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>STORE MADE SAUSAGES VALUE PACK</v>
       </c>
-      <c r="V37" s="5" t="s">
+      <c r="W37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W37" s="3" t="s">
+      <c r="X37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X37" s="3" t="s">
+      <c r="Y37" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
@@ -4151,61 +4266,64 @@
       <c r="G38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="3">
+        <v>1037</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="J38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="3">
         <v>2</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>4</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="3">
         <v>50116584</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="P38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="U38" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="U38" s="3" t="str">
+      <c r="V38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SAN DANIELE, MASTRO, PILLER’S OR OLYMEL
 SLICED DELI</v>
       </c>
-      <c r="V38" s="5" t="s">
+      <c r="W38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="W38" s="3" t="s">
+      <c r="X38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X38" s="3" t="s">
+      <c r="Y38" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>62</v>
       </c>
@@ -4227,57 +4345,60 @@
       <c r="G39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="3">
+        <v>1038</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="J39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="3">
         <v>2</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
         <v>5</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="3">
         <v>50153122</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="U39" s="3" t="str">
+      <c r="V39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FONTAINE SANTÉ OR ADONIS HUMMUS</v>
       </c>
-      <c r="V39" s="5" t="s">
+      <c r="W39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="W39" s="3" t="s">
+      <c r="X39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X39" s="3" t="s">
+      <c r="Y39" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
@@ -4299,60 +4420,63 @@
       <c r="G40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="3">
+        <v>1039</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="J40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="3">
         <v>2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
         <v>6</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O40" s="3">
         <v>30361316</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="U40" s="3" t="str">
+      <c r="V40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>IRRESISTIBLE RICOTTA, COCKTAIL BOCCONCINI, GOAT CHEESE OR SELECTION FETA</v>
       </c>
-      <c r="V40" s="5" t="s">
+      <c r="W40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="X40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X40" s="3" t="s">
+      <c r="Y40" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>62</v>
       </c>
@@ -4374,57 +4498,60 @@
       <c r="G41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="3">
+        <v>1040</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="3">
         <v>2</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9310340</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="P41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="U41" s="3" t="str">
+      <c r="V41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>JANES ULTIMATES BREADED FISH FILLETS</v>
       </c>
-      <c r="V41" s="5" t="s">
+      <c r="W41" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="X41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X41" s="3" t="s">
+      <c r="Y41" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>62</v>
       </c>
@@ -4446,58 +4573,61 @@
       <c r="G42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="3">
+        <v>1041</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="3">
         <v>2</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50191456</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="P42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="U42" s="3" t="str">
+      <c r="V42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BEATRICE
 CHOCOLATE MILK</v>
       </c>
-      <c r="V42" s="5" t="s">
+      <c r="W42" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
@@ -4519,61 +4649,64 @@
       <c r="G43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="3">
+        <v>1042</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="3">
         <v>2</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30589515</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="U43" s="3" t="str">
+      <c r="V43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>IÖGO NANO OR
 SIGGI’S SKYR</v>
       </c>
-      <c r="V43" s="5" t="s">
+      <c r="W43" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="X43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="Y43" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
@@ -4595,57 +4728,60 @@
       <c r="G44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="3">
+        <v>1043</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="3">
         <v>2</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30428331</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="P44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="U44" s="3" t="str">
+      <c r="V44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MARLEY OR IRRESISTIBLE COFFEE CAPSULES</v>
       </c>
-      <c r="V44" s="5" t="s">
+      <c r="W44" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>62</v>
       </c>
@@ -4667,61 +4803,64 @@
       <c r="G45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>1044</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="3">
         <v>2</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9481890</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="P45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="U45" s="3" t="str">
+      <c r="V45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>HIDDEN VALLEY SALAD DRESSING OR
 SWEET BABY RAY’S SAUCE</v>
       </c>
-      <c r="V45" s="5" t="s">
+      <c r="W45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="Y45" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
@@ -4743,58 +4882,61 @@
       <c r="G46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="3">
+        <v>1045</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="3">
         <v>2</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31146745</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="P46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="U46" s="3" t="str">
+      <c r="V46" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CELESTIAL TEA BAGS 20 un. OR
 PEARL MILLING COMPANY PANCAKE </v>
       </c>
-      <c r="V46" s="5" t="s">
+      <c r="W46" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X46" s="3" t="s">
+      <c r="Y46" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
@@ -4816,57 +4958,60 @@
       <c r="G47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="3">
+        <v>1046</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" s="3">
         <v>2</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31447171</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="P47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="U47" s="3" t="str">
+      <c r="V47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>OASIS OR ALLEN’S JUICE OR COCKTAILS</v>
       </c>
-      <c r="V47" s="5" t="s">
+      <c r="W47" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
@@ -4888,57 +5033,60 @@
       <c r="G48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="3">
+        <v>1047</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="3">
         <v>2</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9499166</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="P48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="U48" s="3" t="str">
+      <c r="V48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ESKA NATURAL SPRING WATER</v>
       </c>
-      <c r="V48" s="5" t="s">
+      <c r="W48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>62</v>
       </c>
@@ -4960,57 +5108,60 @@
       <c r="G49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="3">
+        <v>1048</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="3">
         <v>2</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31633256</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="U49" s="3" t="str">
+      <c r="V49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PERRIER, MAISON PERRIER OR SANPELLEGRINO SPARKLING WATER</v>
       </c>
-      <c r="V49" s="5" t="s">
+      <c r="W49" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="X49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X49" s="3" t="s">
+      <c r="Y49" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>62</v>
       </c>
@@ -5032,58 +5183,61 @@
       <c r="G50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="3">
+        <v>1049</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="3">
+      <c r="J50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" s="3">
         <v>2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="L50" s="3">
         <v>16</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="3">
+      <c r="O50" s="3">
         <v>53767346</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="U50" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="U50" s="3" t="str">
+      <c r="V50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>LAY’S FAMILY SIZE CHIPS, SMARTFOOD
 POPCORN, TAKIS OR QUE PASA CHIPS</v>
       </c>
-      <c r="V50" s="5" t="s">
+      <c r="W50" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="W50" s="3" t="s">
+      <c r="X50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X50" s="3" t="s">
+      <c r="Y50" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
@@ -5105,57 +5259,60 @@
       <c r="G51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="3">
+        <v>1050</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="J51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="3">
         <v>2</v>
       </c>
-      <c r="K51" s="3">
+      <c r="L51" s="3">
         <v>17</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="3">
+      <c r="O51" s="3">
         <v>75901436</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T51" s="3" t="s">
+      <c r="U51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="U51" s="3" t="str">
+      <c r="V51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PEPSI SOFT DRINKS 2 L</v>
       </c>
-      <c r="V51" s="5" t="s">
+      <c r="W51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="W51" s="3" t="s">
+      <c r="X51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X51" s="3" t="s">
+      <c r="Y51" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -5177,54 +5334,57 @@
       <c r="G52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="3">
+        <v>1051</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="3">
         <v>2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>98035526</v>
       </c>
-      <c r="O52" s="4" t="s">
+      <c r="P52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U52" s="3" t="str">
+      <c r="V52" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">OCEAN SPRAY OR CLEARLY CANADIAN
 SPARKLING DRINKS </v>
       </c>
-      <c r="V52" s="5" t="s">
+      <c r="W52" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="X52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X52" s="3" t="s">
+      <c r="Y52" s="3" t="s">
         <v>176</v>
       </c>
     </row>
